--- a/trunk/6. Test/Linh tinh/sprint 4/AS_TE_TestCase-DMS_Sprint4_ENG.xlsx
+++ b/trunk/6. Test/Linh tinh/sprint 4/AS_TE_TestCase-DMS_Sprint4_ENG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="3" r:id="rId1"/>
@@ -473,25 +473,7 @@
     <t>TC.18.1</t>
   </si>
   <si>
-    <t>Số lượng testcase block: 2 (chiếm 2%)</t>
-  </si>
-  <si>
-    <t>Các testcase Failed: đã có hướng giải quyết nhưng không đủ thời gian,chuyển qua Sprint tiếp theo để hoàn thiện sản phẩm.</t>
-  </si>
-  <si>
-    <t>Các testcase Block: chưa nghĩ ra hướng giải quyết, chuyển qua Sprint tiếp theo.</t>
-  </si>
-  <si>
     <t>Số lượng testcase passed đạt mức 76% phù hợp với chỉ tiêu đặt ra ở mức NORMAL(&lt;80%).</t>
-  </si>
-  <si>
-    <t>Số lượng testcase failed: 20 (chiếm 22%)</t>
-  </si>
-  <si>
-    <t>Số lượng Testcase: 94</t>
-  </si>
-  <si>
-    <t>Số lượng testcase passed: 72 (chiếm 76%)</t>
   </si>
   <si>
     <t>Quản trị người dùng</t>
@@ -1145,6 +1127,24 @@
   </si>
   <si>
     <t>TC.18.2</t>
+  </si>
+  <si>
+    <t>Total Testcase: 38</t>
+  </si>
+  <si>
+    <t>Testcase passed: 38 (occupy 100%)</t>
+  </si>
+  <si>
+    <t>Testcase failed: 0 (occupy 0%)</t>
+  </si>
+  <si>
+    <t>Testcase block: 0 (occupy 0%)</t>
+  </si>
+  <si>
+    <t>Testcase passed approximate 100% accordance with the criteria set out in level GOOD (&gt;80%).</t>
+  </si>
+  <si>
+    <t>Testcase Failed: have solutions but not enough time, switch to Sprint next product improvements.</t>
   </si>
 </sst>
 </file>
@@ -1719,6 +1719,45 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1727,45 +1766,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2303,6 +2303,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2523,7 +2524,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2847,6 +2850,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4069,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="70" t="s">
@@ -4084,7 +4088,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="70" t="s">
@@ -4099,7 +4103,7 @@
         <v>1.2</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="70" t="s">
@@ -4114,7 +4118,7 @@
         <v>1.3</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="70" t="s">
@@ -4129,7 +4133,7 @@
         <v>1.4</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="70" t="s">
@@ -4144,7 +4148,7 @@
         <v>1.5</v>
       </c>
       <c r="D23" s="69" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="70" t="s">
@@ -4406,7 +4410,7 @@
         <v>Check login</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D6" s="42"/>
     </row>
@@ -4419,7 +4423,7 @@
         <v>Check invalid login</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -4434,14 +4438,14 @@
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B9" s="7" t="str">
         <f>'Testcase Specification'!C22</f>
         <v>Content of List question</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D9" s="42"/>
     </row>
@@ -4463,7 +4467,7 @@
         <v>Implement search</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D11" s="42"/>
     </row>
@@ -4478,14 +4482,14 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B13" s="42" t="str">
         <f>'Testcase Specification'!C31</f>
         <v>Show detail question</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D13" s="42"/>
     </row>
@@ -4507,7 +4511,7 @@
         <v xml:space="preserve">Send answer </v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D15" s="42"/>
     </row>
@@ -4529,7 +4533,7 @@
         <v>Save question</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D17" s="42"/>
     </row>
@@ -4551,7 +4555,7 @@
         <v>Show dict</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D19" s="42"/>
     </row>
@@ -4573,7 +4577,7 @@
         <v>put question into dict from list-save</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D21" s="42"/>
     </row>
@@ -4586,7 +4590,7 @@
         <v>Upload dict on internet from list-dict (available)</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D22" s="42"/>
     </row>
@@ -4608,7 +4612,7 @@
         <v>drop-dict</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D24" s="42"/>
     </row>
@@ -4630,7 +4634,7 @@
         <v>Delete question in list-unanswer</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D26" s="42"/>
     </row>
@@ -4643,7 +4647,7 @@
         <v>Delete question in list-tempsave</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D27" s="42"/>
     </row>
@@ -4656,7 +4660,7 @@
         <v>Delete question in list-saved</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D28" s="42"/>
     </row>
@@ -4678,7 +4682,7 @@
         <v>restore question from list-deleted</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D30" s="42"/>
     </row>
@@ -4691,7 +4695,7 @@
         <v>restore question from list-dict</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D31" s="42"/>
     </row>
@@ -4713,7 +4717,7 @@
         <v>Create question</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D33" s="42"/>
     </row>
@@ -4735,17 +4739,12 @@
         <v>0</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D35" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A12:D12"/>
@@ -4754,6 +4753,11 @@
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4768,7 +4772,7 @@
   </sheetPr>
   <dimension ref="A2:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
@@ -4786,13 +4790,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="90"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="53">
         <f>COUNTIF(I11:I85,"&gt;a0")</f>
         <v>38</v>
@@ -4800,11 +4804,11 @@
       <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="90"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="53">
         <f>SUM(D5:D6)</f>
         <v>38</v>
@@ -4812,55 +4816,55 @@
       <c r="E3" s="60"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="90"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="53">
         <f>D2-D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="91" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="91"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="53">
         <f>COUNTIF(H11:H85,"Passed")</f>
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="91" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="91"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="53">
         <f>COUNTIF(H12:H76,"Failed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="91" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="91"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="53">
         <f>COUNTIF(H12:H76,"Block")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="92" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="54">
         <f>1-(D4/D2)</f>
         <v>1</v>
@@ -4897,7 +4901,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="58" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -4913,7 +4917,7 @@
         <v>83</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
@@ -4931,13 +4935,13 @@
         <v>44</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>90</v>
@@ -4955,7 +4959,7 @@
         <v>84</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="49"/>
@@ -4973,13 +4977,13 @@
         <v>60</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G15" s="45" t="s">
         <v>90</v>
@@ -4991,7 +4995,7 @@
         <v>100</v>
       </c>
       <c r="J15" s="71" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5002,13 +5006,13 @@
         <v>61</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G16" s="45" t="s">
         <v>90</v>
@@ -5029,13 +5033,13 @@
         <v>62</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G17" s="45" t="s">
         <v>90</v>
@@ -5056,13 +5060,13 @@
         <v>63</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G18" s="45" t="s">
         <v>90</v>
@@ -5083,13 +5087,13 @@
         <v>46</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G19" s="45" t="s">
         <v>90</v>
@@ -5104,19 +5108,19 @@
     </row>
     <row r="20" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B20" s="45" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C20" s="46">
         <v>85</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>90</v>
@@ -5131,7 +5135,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="58" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
@@ -5144,10 +5148,10 @@
     </row>
     <row r="22" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B22" s="48" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="49"/>
@@ -5159,19 +5163,19 @@
     </row>
     <row r="23" spans="2:10" ht="123.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B23" s="45" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C23" s="46">
         <v>51</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>90</v>
@@ -5186,19 +5190,19 @@
     </row>
     <row r="24" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B24" s="45" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C24" s="46">
         <v>52</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>90</v>
@@ -5213,19 +5217,19 @@
     </row>
     <row r="25" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B25" s="45" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C25" s="46">
         <v>53</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>90</v>
@@ -5240,19 +5244,19 @@
     </row>
     <row r="26" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B26" s="45" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C26" s="46">
         <v>93</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>90</v>
@@ -5267,7 +5271,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="58" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C27" s="52"/>
       <c r="D27" s="52"/>
@@ -5283,7 +5287,7 @@
         <v>101</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
@@ -5301,13 +5305,13 @@
         <v>55</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G29" s="45" t="s">
         <v>90</v>
@@ -5322,7 +5326,7 @@
     </row>
     <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="58" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C30" s="58"/>
       <c r="D30" s="58"/>
@@ -5335,10 +5339,10 @@
     </row>
     <row r="31" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B31" s="48" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D31" s="49"/>
       <c r="E31" s="49"/>
@@ -5350,19 +5354,19 @@
     </row>
     <row r="32" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C32" s="46">
         <v>57</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G32" s="45" t="s">
         <v>90</v>
@@ -5377,19 +5381,19 @@
     </row>
     <row r="33" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B33" s="45" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C33" s="46">
         <v>58</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G33" s="45" t="s">
         <v>90</v>
@@ -5404,19 +5408,19 @@
     </row>
     <row r="34" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B34" s="45" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C34" s="46">
         <v>59</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G34" s="45" t="s">
         <v>90</v>
@@ -5431,7 +5435,7 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="58" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C35" s="58"/>
       <c r="D35" s="58"/>
@@ -5447,7 +5451,7 @@
         <v>105</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D36" s="49"/>
       <c r="E36" s="49"/>
@@ -5459,19 +5463,19 @@
     </row>
     <row r="37" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B37" s="45" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C37" s="46">
         <v>95</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>90</v>
@@ -5486,19 +5490,19 @@
     </row>
     <row r="38" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B38" s="45" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C38" s="46">
         <v>96</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G38" s="45" t="s">
         <v>90</v>
@@ -5513,7 +5517,7 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="58" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C39" s="58"/>
       <c r="D39" s="58"/>
@@ -5529,7 +5533,7 @@
         <v>106</v>
       </c>
       <c r="C40" s="57" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D40" s="49"/>
       <c r="E40" s="49"/>
@@ -5541,19 +5545,19 @@
     </row>
     <row r="41" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B41" s="45" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C41" s="46">
         <v>97</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G41" s="45" t="s">
         <v>90</v>
@@ -5568,19 +5572,19 @@
     </row>
     <row r="42" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B42" s="45" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C42" s="46">
         <v>98</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F42" s="59" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>90</v>
@@ -5595,7 +5599,7 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="58" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C43" s="58"/>
       <c r="D43" s="58"/>
@@ -5611,7 +5615,7 @@
         <v>109</v>
       </c>
       <c r="C44" s="57" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D44" s="49"/>
       <c r="E44" s="49"/>
@@ -5623,19 +5627,19 @@
     </row>
     <row r="45" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B45" s="45" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C45" s="46">
         <v>99</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G45" s="45" t="s">
         <v>90</v>
@@ -5650,19 +5654,19 @@
     </row>
     <row r="46" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B46" s="45" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C46" s="46">
         <v>100</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G46" s="45" t="s">
         <v>90</v>
@@ -5677,19 +5681,19 @@
     </row>
     <row r="47" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B47" s="45" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C47" s="46">
         <v>100</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G47" s="45" t="s">
         <v>90</v>
@@ -5704,19 +5708,19 @@
     </row>
     <row r="48" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B48" s="45" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C48" s="46">
         <v>101</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G48" s="45" t="s">
         <v>90</v>
@@ -5731,7 +5735,7 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="58" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C49" s="58"/>
       <c r="D49" s="58"/>
@@ -5747,7 +5751,7 @@
         <v>110</v>
       </c>
       <c r="C50" s="57" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D50" s="49"/>
       <c r="E50" s="49"/>
@@ -5759,17 +5763,17 @@
     </row>
     <row r="51" spans="2:10" ht="98.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B51" s="45" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C51" s="45"/>
       <c r="D51" s="33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G51" s="33" t="s">
         <v>90</v>
@@ -5787,7 +5791,7 @@
         <v>111</v>
       </c>
       <c r="C52" s="57" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D52" s="49"/>
       <c r="E52" s="49"/>
@@ -5803,13 +5807,13 @@
       </c>
       <c r="C53" s="45"/>
       <c r="D53" s="33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G53" s="33" t="s">
         <v>90</v>
@@ -5824,7 +5828,7 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="58" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C54" s="58"/>
       <c r="D54" s="58"/>
@@ -5840,7 +5844,7 @@
         <v>113</v>
       </c>
       <c r="C55" s="57" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
@@ -5856,13 +5860,13 @@
       </c>
       <c r="C56" s="45"/>
       <c r="D56" s="45" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G56" s="33" t="s">
         <v>90</v>
@@ -5877,7 +5881,7 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="58" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C57" s="58"/>
       <c r="D57" s="58"/>
@@ -5893,7 +5897,7 @@
         <v>115</v>
       </c>
       <c r="C58" s="57" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D58" s="49"/>
       <c r="E58" s="49"/>
@@ -5909,13 +5913,13 @@
       </c>
       <c r="C59" s="45"/>
       <c r="D59" s="33" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G59" s="45" t="s">
         <v>90</v>
@@ -5933,7 +5937,7 @@
         <v>117</v>
       </c>
       <c r="C60" s="57" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D60" s="49"/>
       <c r="E60" s="49"/>
@@ -5949,13 +5953,13 @@
       </c>
       <c r="C61" s="45"/>
       <c r="D61" s="33" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G61" s="33" t="s">
         <v>90</v>
@@ -5973,7 +5977,7 @@
         <v>119</v>
       </c>
       <c r="C62" s="57" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D62" s="49"/>
       <c r="E62" s="49"/>
@@ -5989,13 +5993,13 @@
       </c>
       <c r="C63" s="45"/>
       <c r="D63" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="E63" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="E63" s="33" t="s">
-        <v>256</v>
-      </c>
       <c r="F63" s="33" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G63" s="33" t="s">
         <v>90</v>
@@ -6010,7 +6014,7 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="58" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C64" s="58"/>
       <c r="D64" s="58"/>
@@ -6026,7 +6030,7 @@
         <v>121</v>
       </c>
       <c r="C65" s="57" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D65" s="49"/>
       <c r="E65" s="49"/>
@@ -6042,13 +6046,13 @@
       </c>
       <c r="C66" s="45"/>
       <c r="D66" s="33" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F66" s="33" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G66" s="33" t="s">
         <v>90</v>
@@ -6063,17 +6067,17 @@
     </row>
     <row r="67" spans="2:10" ht="97.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B67" s="45" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C67" s="45"/>
       <c r="D67" s="33" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F67" s="33" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G67" s="33" t="s">
         <v>90</v>
@@ -6088,17 +6092,17 @@
     </row>
     <row r="68" spans="2:10" ht="96" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B68" s="45" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C68" s="45"/>
       <c r="D68" s="33" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G68" s="33" t="s">
         <v>90</v>
@@ -6116,7 +6120,7 @@
         <v>123</v>
       </c>
       <c r="C69" s="57" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D69" s="49"/>
       <c r="E69" s="49"/>
@@ -6132,13 +6136,13 @@
       </c>
       <c r="C70" s="45"/>
       <c r="D70" s="33" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G70" s="33" t="s">
         <v>90</v>
@@ -6157,13 +6161,13 @@
       </c>
       <c r="C71" s="45"/>
       <c r="D71" s="33" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G71" s="33" t="s">
         <v>90</v>
@@ -6182,13 +6186,13 @@
       </c>
       <c r="C72" s="45"/>
       <c r="D72" s="33" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G72" s="33" t="s">
         <v>90</v>
@@ -6203,7 +6207,7 @@
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="58" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C73" s="58"/>
       <c r="D73" s="58"/>
@@ -6219,7 +6223,7 @@
         <v>140</v>
       </c>
       <c r="C74" s="57" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D74" s="49"/>
       <c r="E74" s="49"/>
@@ -6231,17 +6235,17 @@
     </row>
     <row r="75" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B75" s="45" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C75" s="45"/>
       <c r="D75" s="33" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G75" s="45" t="s">
         <v>90</v>
@@ -6256,7 +6260,7 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="58" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C76" s="58"/>
       <c r="D76" s="58"/>
@@ -6281,144 +6285,156 @@
       <c r="J77" s="48"/>
     </row>
     <row r="78" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B78" s="77" t="s">
+      <c r="B78" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="80"/>
-      <c r="D78" s="77" t="s">
+      <c r="C78" s="81"/>
+      <c r="D78" s="90" t="s">
+        <v>307</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="F78" s="45"/>
+      <c r="G78" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="I78" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="J78" s="45"/>
+    </row>
+    <row r="79" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B79" s="91"/>
+      <c r="C79" s="82"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="F79" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="G79" s="82"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="88"/>
+      <c r="J79" s="45"/>
+    </row>
+    <row r="80" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B80" s="91"/>
+      <c r="C80" s="82"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="F80" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="G80" s="82"/>
+      <c r="H80" s="85"/>
+      <c r="I80" s="88"/>
+      <c r="J80" s="45"/>
+    </row>
+    <row r="81" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B81" s="92"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="F81" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="E78" s="33" t="s">
+      <c r="G81" s="83"/>
+      <c r="H81" s="86"/>
+      <c r="I81" s="89"/>
+      <c r="J81" s="45"/>
+    </row>
+    <row r="82" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B82" s="90" t="s">
         <v>315</v>
       </c>
-      <c r="F78" s="45"/>
-      <c r="G78" s="80" t="s">
+      <c r="C82" s="81"/>
+      <c r="D82" s="90" t="s">
+        <v>308</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="F82" s="45"/>
+      <c r="G82" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="H78" s="83" t="s">
+      <c r="H82" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="I78" s="86" t="s">
+      <c r="I82" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="J78" s="45"/>
-    </row>
-    <row r="79" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B79" s="78"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="78"/>
-      <c r="E79" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="F79" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="G79" s="81"/>
-      <c r="H79" s="84"/>
-      <c r="I79" s="87"/>
-      <c r="J79" s="45"/>
-    </row>
-    <row r="80" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B80" s="78"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="78"/>
-      <c r="E80" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F80" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="G80" s="81"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="87"/>
-      <c r="J80" s="45"/>
-    </row>
-    <row r="81" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B81" s="79"/>
-      <c r="C81" s="82"/>
-      <c r="D81" s="79"/>
-      <c r="E81" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="F81" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="G81" s="82"/>
-      <c r="H81" s="85"/>
-      <c r="I81" s="88"/>
-      <c r="J81" s="45"/>
-    </row>
-    <row r="82" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B82" s="77" t="s">
-        <v>321</v>
-      </c>
-      <c r="C82" s="80"/>
-      <c r="D82" s="77" t="s">
-        <v>314</v>
-      </c>
-      <c r="E82" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="F82" s="45"/>
-      <c r="G82" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="H82" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="I82" s="86" t="s">
-        <v>124</v>
-      </c>
       <c r="J82" s="45"/>
     </row>
     <row r="83" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B83" s="78"/>
-      <c r="C83" s="81"/>
-      <c r="D83" s="78"/>
+      <c r="B83" s="91"/>
+      <c r="C83" s="82"/>
+      <c r="D83" s="91"/>
       <c r="E83" s="33" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F83" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="G83" s="81"/>
-      <c r="H83" s="84"/>
-      <c r="I83" s="87"/>
+        <v>147</v>
+      </c>
+      <c r="G83" s="82"/>
+      <c r="H83" s="85"/>
+      <c r="I83" s="88"/>
       <c r="J83" s="45"/>
     </row>
     <row r="84" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B84" s="78"/>
-      <c r="C84" s="81"/>
-      <c r="D84" s="78"/>
+      <c r="B84" s="91"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="91"/>
       <c r="E84" s="33" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F84" s="53">
         <v>123456</v>
       </c>
-      <c r="G84" s="81"/>
-      <c r="H84" s="84"/>
-      <c r="I84" s="87"/>
+      <c r="G84" s="82"/>
+      <c r="H84" s="85"/>
+      <c r="I84" s="88"/>
       <c r="J84" s="45"/>
     </row>
     <row r="85" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B85" s="79"/>
-      <c r="C85" s="82"/>
-      <c r="D85" s="79"/>
+      <c r="B85" s="92"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="92"/>
       <c r="E85" s="45" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="G85" s="82"/>
-      <c r="H85" s="85"/>
-      <c r="I85" s="88"/>
+        <v>314</v>
+      </c>
+      <c r="G85" s="83"/>
+      <c r="H85" s="86"/>
+      <c r="I85" s="89"/>
       <c r="J85" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="B10:J76"/>
   <mergeCells count="20">
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="H82:H85"/>
+    <mergeCell ref="I78:I81"/>
+    <mergeCell ref="I82:I85"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -6427,18 +6443,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="G82:G85"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="H82:H85"/>
-    <mergeCell ref="I78:I81"/>
-    <mergeCell ref="I82:I85"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
   </mergeCells>
   <conditionalFormatting sqref="H56 H66:H68 H70:H72">
     <cfRule type="containsText" dxfId="67" priority="110" operator="containsText" text="Not Applicable">
@@ -6736,8 +6740,8 @@
   </sheetPr>
   <dimension ref="L3:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6747,22 +6751,22 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="27" t="s">
-        <v>148</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="27" t="s">
-        <v>149</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="27" t="s">
-        <v>147</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="27" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6770,7 +6774,7 @@
     </row>
     <row r="8" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L8" s="64" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6781,15 +6785,15 @@
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L11" s="66" t="s">
-        <v>145</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L12" s="65"/>
     </row>
-    <row r="13" spans="12:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L13" s="66" t="s">
-        <v>144</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/6. Test/Linh tinh/sprint 4/AS_TE_TestCase-DMS_Sprint4_ENG.xlsx
+++ b/trunk/6. Test/Linh tinh/sprint 4/AS_TE_TestCase-DMS_Sprint4_ENG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\6. Test\Linh tinh\sprint 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="328">
   <si>
     <t>Expected results</t>
   </si>
@@ -320,15 +320,6 @@
     <t>Tested By</t>
   </si>
   <si>
-    <t>Tổng số Testcase:</t>
-  </si>
-  <si>
-    <t>Đã hoàn thành:</t>
-  </si>
-  <si>
-    <t>Còn lại:</t>
-  </si>
-  <si>
     <t>Passed:</t>
   </si>
   <si>
@@ -474,13 +465,6 @@
   </si>
   <si>
     <t>Số lượng testcase passed đạt mức 76% phù hợp với chỉ tiêu đặt ra ở mức NORMAL(&lt;80%).</t>
-  </si>
-  <si>
-    <t>Quản trị người dùng</t>
-  </si>
-  <si>
-    <t>Đối với admin: hiển thị đầy đủ chức năng
-Đối với User: Hạn chế một số chưc năng liên quan đến hệ thống</t>
   </si>
   <si>
     <t>admin123</t>
@@ -1145,6 +1129,40 @@
   </si>
   <si>
     <t>Testcase Failed: have solutions but not enough time, switch to Sprint next product improvements.</t>
+  </si>
+  <si>
+    <t>Nguyen Phan Xuan Huy</t>
+  </si>
+  <si>
+    <t>Ngo Quang Huy</t>
+  </si>
+  <si>
+    <t>Test Objective</t>
+  </si>
+  <si>
+    <t>Project: Admission system - DeadlineTeam - Mentor: Mr. Bui Minh Phung</t>
+  </si>
+  <si>
+    <t>Project Test lead: Nguyen Phan Xuan Huy</t>
+  </si>
+  <si>
+    <t>Test Specification</t>
+  </si>
+  <si>
+    <t>User management</t>
+  </si>
+  <si>
+    <t>TotalTestcase:</t>
+  </si>
+  <si>
+    <t>Done:</t>
+  </si>
+  <si>
+    <t>Remain:</t>
+  </si>
+  <si>
+    <t>For admin: fully functional display 
+For User: Limit the number of functions related to system</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,6 +1304,32 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1509,7 +1553,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1661,9 +1705,6 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1675,9 +1716,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1698,15 +1736,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1716,9 +1760,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1765,6 +1815,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2284,11 +2337,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2297,13 +2350,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
+              <a:rPr lang="en-US"/>
               <a:t>Report</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2317,11 +2369,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2345,132 +2397,45 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="50000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="35000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="37000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:tint val="15000"/>
-                      <a:satMod val="350000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="1"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="38000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:tint val="50000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="35000">
-                    <a:schemeClr val="accent2">
-                      <a:tint val="37000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:tint val="15000"/>
-                      <a:satMod val="350000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="1"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="38000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:tint val="50000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="35000">
-                    <a:schemeClr val="accent3">
-                      <a:tint val="37000"/>
-                      <a:satMod val="300000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:tint val="15000"/>
-                      <a:satMod val="350000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="1"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="38000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
@@ -2488,11 +2453,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2512,21 +2477,20 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525">
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
                       <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
+                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2604,132 +2568,45 @@
                   <c:idx val="0"/>
                   <c:bubble3D val="0"/>
                   <c:spPr>
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent1">
-                            <a:tint val="50000"/>
-                            <a:satMod val="300000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="35000">
-                          <a:schemeClr val="accent1">
-                            <a:tint val="37000"/>
-                            <a:satMod val="300000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent1">
-                            <a:tint val="15000"/>
-                            <a:satMod val="350000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="16200000" scaled="1"/>
-                    </a:gradFill>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
                       <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:shade val="95000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="lt1"/>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="38000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
+                    <a:effectLst/>
                   </c:spPr>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
                   <c:bubble3D val="0"/>
                   <c:spPr>
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent2">
-                            <a:tint val="50000"/>
-                            <a:satMod val="300000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="35000">
-                          <a:schemeClr val="accent2">
-                            <a:tint val="37000"/>
-                            <a:satMod val="300000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent2">
-                            <a:tint val="15000"/>
-                            <a:satMod val="350000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="16200000" scaled="1"/>
-                    </a:gradFill>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
                       <a:solidFill>
-                        <a:schemeClr val="accent2">
-                          <a:shade val="95000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="lt1"/>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="38000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
+                    <a:effectLst/>
                   </c:spPr>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
                   <c:bubble3D val="0"/>
                   <c:spPr>
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent3">
-                            <a:tint val="50000"/>
-                            <a:satMod val="300000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="35000">
-                          <a:schemeClr val="accent3">
-                            <a:tint val="37000"/>
-                            <a:satMod val="300000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent3">
-                            <a:tint val="15000"/>
-                            <a:satMod val="350000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="16200000" scaled="1"/>
-                    </a:gradFill>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="19050">
                       <a:solidFill>
-                        <a:schemeClr val="accent3">
-                          <a:shade val="95000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="lt1"/>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="38000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
+                    <a:effectLst/>
                   </c:spPr>
                 </c:dPt>
                 <c:dLbls>
@@ -2750,8 +2627,8 @@
                         <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
                             <a:schemeClr val="tx1">
-                              <a:lumMod val="65000"/>
-                              <a:lumOff val="35000"/>
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
                             </a:schemeClr>
                           </a:solidFill>
                           <a:latin typeface="+mn-lt"/>
@@ -2771,13 +2648,14 @@
                   <c:showLeaderLines val="1"/>
                   <c:leaderLines>
                     <c:spPr>
-                      <a:ln w="9525">
+                      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="35000"/>
                             <a:lumOff val="65000"/>
                           </a:schemeClr>
                         </a:solidFill>
+                        <a:round/>
                       </a:ln>
                       <a:effectLst/>
                     </c:spPr>
@@ -2849,8 +2727,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2864,11 +2741,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2958,18 +2835,18 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2977,8 +2854,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -2999,7 +2876,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3023,8 +2900,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3058,51 +2935,50 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="2">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr/>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="15875" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3114,33 +2990,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3157,18 +3030,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3178,7 +3053,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3187,13 +3062,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3202,17 +3078,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3221,16 +3097,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -3239,15 +3116,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3266,16 +3149,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3284,17 +3168,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3303,16 +3187,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3322,8 +3207,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3333,7 +3218,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3341,7 +3226,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3350,21 +3235,10 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3372,17 +3246,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3392,26 +3266,27 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3421,8 +3296,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3432,19 +3307,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3454,8 +3330,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3465,8 +3341,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3475,21 +3357,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>569879</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1113953</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>140785</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8175701" cy="937629"/>
+    <xdr:ext cx="184731" cy="937629"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5094254" y="521785"/>
-          <a:ext cx="8175701" cy="937629"/>
+          <a:off x="10724678" y="626560"/>
+          <a:ext cx="184731" cy="937629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3503,44 +3385,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
-              <a:ln w="6600">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="accent2"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Admission</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0" baseline="0">
-              <a:ln w="6600">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="accent2"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t> System - Sprint 1</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
             <a:ln w="6600">
               <a:solidFill>
@@ -3954,7 +3798,7 @@
   <dimension ref="B3:F25"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3964,7 +3808,7 @@
     <col min="3" max="3" width="24.7109375" style="15" customWidth="1"/>
     <col min="4" max="4" width="21.140625" style="15" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="15" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
@@ -4066,93 +3910,93 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="67">
+      <c r="B18" s="65">
         <v>41754</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="66">
         <v>1</v>
       </c>
-      <c r="D18" s="69" t="s">
-        <v>158</v>
+      <c r="D18" s="67" t="s">
+        <v>153</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="70" t="s">
-        <v>16</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="67">
+      <c r="B19" s="65">
         <v>41755</v>
       </c>
       <c r="C19" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D19" s="69" t="s">
-        <v>159</v>
+      <c r="D19" s="67" t="s">
+        <v>154</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="70" t="s">
-        <v>16</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="67">
+      <c r="B20" s="65">
         <v>41756</v>
       </c>
       <c r="C20" s="19">
         <v>1.2</v>
       </c>
-      <c r="D20" s="69" t="s">
-        <v>159</v>
+      <c r="D20" s="67" t="s">
+        <v>154</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="70" t="s">
-        <v>16</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="67">
+      <c r="B21" s="65">
         <v>41757</v>
       </c>
       <c r="C21" s="19">
         <v>1.3</v>
       </c>
-      <c r="D21" s="69" t="s">
-        <v>159</v>
+      <c r="D21" s="67" t="s">
+        <v>154</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="70" t="s">
-        <v>16</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="67">
+      <c r="B22" s="65">
         <v>41758</v>
       </c>
       <c r="C22" s="19">
         <v>1.4</v>
       </c>
-      <c r="D22" s="69" t="s">
-        <v>159</v>
+      <c r="D22" s="67" t="s">
+        <v>154</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="70" t="s">
-        <v>16</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="67">
+      <c r="B23" s="65">
         <v>41787</v>
       </c>
       <c r="C23" s="19">
         <v>1.5</v>
       </c>
-      <c r="D23" s="69" t="s">
-        <v>159</v>
+      <c r="D23" s="67" t="s">
+        <v>154</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="70" t="s">
-        <v>100</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4363,10 +4207,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A4:D35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4378,7 +4222,31 @@
     <col min="5" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" s="56" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+    </row>
+    <row r="4" spans="1:4" s="55" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>80</v>
       </c>
@@ -4393,13 +4261,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="str">
+      <c r="A5" s="77" t="str">
         <f>'Testcase Specification'!B11</f>
         <v>Login</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
@@ -4410,11 +4278,11 @@
         <v>Check login</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D6" s="42"/>
     </row>
-    <row r="7" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>84</v>
       </c>
@@ -4423,328 +4291,329 @@
         <v>Check invalid login</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="str">
+      <c r="A8" s="77" t="str">
         <f>'Testcase Specification'!B21</f>
         <v>Show list question</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B9" s="7" t="str">
         <f>'Testcase Specification'!C22</f>
         <v>Content of List question</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="str">
+      <c r="A10" s="77" t="str">
         <f>'Testcase Specification'!B27</f>
         <v>Search</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B11" s="42" t="str">
         <f>'Testcase Specification'!C28</f>
         <v>Implement search</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="str">
+      <c r="A12" s="77" t="str">
         <f>'Testcase Specification'!B30</f>
         <v>view question</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B13" s="42" t="str">
         <f>'Testcase Specification'!C31</f>
         <v>Show detail question</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D13" s="42"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="str">
+      <c r="A14" s="77" t="str">
         <f>'Testcase Specification'!B35</f>
         <v>Send mail</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B15" s="42" t="str">
         <f>'Testcase Specification'!C36</f>
         <v xml:space="preserve">Send answer </v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="str">
+      <c r="A16" s="77" t="str">
         <f>'Testcase Specification'!B39</f>
         <v>Save question</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
     </row>
     <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B17" s="42" t="str">
         <f>'Testcase Specification'!C40</f>
         <v>Save question</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="76" t="str">
+      <c r="A18" s="77" t="str">
         <f>'Testcase Specification'!B43</f>
         <v>Dictionary</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
     </row>
     <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B19" s="42" t="str">
         <f>'Testcase Specification'!C44</f>
         <v>Show dict</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="76" t="str">
+      <c r="A20" s="77" t="str">
         <f>'Testcase Specification'!B49</f>
         <v>Upload-dict</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
     </row>
     <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B21" s="42" t="str">
         <f>'Testcase Specification'!C50</f>
         <v>put question into dict from list-save</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B22" s="42" t="str">
         <f>'Testcase Specification'!C52</f>
         <v>Upload dict on internet from list-dict (available)</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D22" s="42"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="76" t="str">
+      <c r="A23" s="77" t="str">
         <f>'Testcase Specification'!B54</f>
         <v>Drop-dict</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
     </row>
     <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B24" s="42" t="str">
         <f>'Testcase Specification'!C55</f>
         <v>drop-dict</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D24" s="42"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="76" t="str">
+      <c r="A25" s="77" t="str">
         <f>'Testcase Specification'!B57</f>
         <v>Delete question</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
     </row>
     <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B26" s="42" t="str">
         <f>'Testcase Specification'!C58</f>
         <v>Delete question in list-unanswer</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D26" s="42"/>
     </row>
     <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B27" s="42" t="str">
         <f>'Testcase Specification'!C60</f>
         <v>Delete question in list-tempsave</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D27" s="42"/>
     </row>
     <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B28" s="42" t="str">
         <f>'Testcase Specification'!C62</f>
         <v>Delete question in list-saved</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D28" s="42"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="76" t="str">
+      <c r="A29" s="77" t="str">
         <f>'Testcase Specification'!B64</f>
         <v>restore question</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
     </row>
     <row r="30" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B30" s="42" t="str">
         <f>'Testcase Specification'!C65</f>
         <v>restore question from list-deleted</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D30" s="42"/>
     </row>
     <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B31" s="42" t="str">
         <f>'Testcase Specification'!C69</f>
         <v>restore question from list-dict</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D31" s="42"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="76" t="str">
+      <c r="A32" s="77" t="str">
         <f>'Testcase Specification'!B73</f>
         <v>Create question</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
     </row>
     <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B33" s="42" t="str">
         <f>'Testcase Specification'!C74</f>
         <v>Create question</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D33" s="42"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="76" t="str">
+      <c r="A34" s="77" t="str">
         <f>'Testcase Specification'!B76</f>
-        <v>Quản trị người dùng</v>
-      </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
+        <v>User management</v>
+      </c>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
     </row>
     <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="B35" s="42">
+        <v>138</v>
+      </c>
+      <c r="B35" s="42" t="str">
         <f>'Testcase Specification'!C77</f>
-        <v>0</v>
+        <v>User management</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>145</v>
+        <v>327</v>
       </c>
       <c r="D35" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A12:D12"/>
@@ -4753,11 +4622,11 @@
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4772,8 +4641,8 @@
   </sheetPr>
   <dimension ref="A2:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView showGridLines="0" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -4790,81 +4659,121 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="78"/>
+      <c r="A2" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="80"/>
       <c r="D2" s="53">
         <f>COUNTIF(I11:I85,"&gt;a0")</f>
         <v>38</v>
       </c>
-      <c r="E2" s="55"/>
+      <c r="E2" s="78" t="s">
+        <v>322</v>
+      </c>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="78"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="80" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="80"/>
       <c r="D3" s="53">
         <f>SUM(D5:D6)</f>
         <v>38</v>
       </c>
-      <c r="E3" s="60"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="78"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="80"/>
       <c r="D4" s="53">
         <f>D2-D3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="79"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="79"/>
+      <c r="B5" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="81"/>
       <c r="D5" s="53">
         <f>COUNTIF(H11:H85,"Passed")</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="79"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="79"/>
+      <c r="B6" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="81"/>
       <c r="D6" s="53">
         <f>COUNTIF(H12:H76,"Failed")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
-      <c r="B7" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="79"/>
+      <c r="E6" s="72" t="s">
+        <v>320</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="79"/>
+      <c r="B7" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="81"/>
       <c r="D7" s="53">
         <f>COUNTIF(H12:H76,"Block")</f>
         <v>0</v>
       </c>
+      <c r="E7" s="72" t="s">
+        <v>321</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="80"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="82"/>
       <c r="D8" s="54">
         <f>1-(D4/D2)</f>
         <v>1</v>
@@ -4881,7 +4790,7 @@
         <v>55</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F10" s="43" t="s">
         <v>87</v>
@@ -4900,8 +4809,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="58" t="s">
-        <v>176</v>
+      <c r="B11" s="57" t="s">
+        <v>171</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -4917,7 +4826,7 @@
         <v>83</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
@@ -4935,22 +4844,22 @@
         <v>44</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J13" s="45"/>
     </row>
@@ -4959,7 +4868,7 @@
         <v>84</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="49"/>
@@ -4971,171 +4880,171 @@
     </row>
     <row r="15" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B15" s="45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C15" s="46">
         <v>60</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G15" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J15" s="71" t="s">
-        <v>182</v>
+        <v>97</v>
+      </c>
+      <c r="J15" s="68" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B16" s="45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C16" s="46">
         <v>61</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G16" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="71"/>
+        <v>97</v>
+      </c>
+      <c r="J16" s="68"/>
     </row>
     <row r="17" spans="2:10" ht="75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C17" s="46">
         <v>62</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G17" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J17" s="71"/>
+        <v>97</v>
+      </c>
+      <c r="J17" s="68"/>
     </row>
     <row r="18" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B18" s="45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C18" s="46">
         <v>63</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G18" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="71"/>
+        <v>97</v>
+      </c>
+      <c r="J18" s="68"/>
     </row>
     <row r="19" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B19" s="45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C19" s="46">
         <v>46</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G19" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J19" s="46"/>
     </row>
     <row r="20" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B20" s="45" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C20" s="46">
         <v>85</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J20" s="45"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="58" t="s">
-        <v>190</v>
+      <c r="B21" s="57" t="s">
+        <v>185</v>
       </c>
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
@@ -5148,10 +5057,10 @@
     </row>
     <row r="22" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B22" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>191</v>
+        <v>293</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>186</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="49"/>
@@ -5163,115 +5072,115 @@
     </row>
     <row r="23" spans="2:10" ht="123.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B23" s="45" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C23" s="46">
         <v>51</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J23" s="45"/>
     </row>
     <row r="24" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B24" s="45" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C24" s="46">
         <v>52</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I24" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J24" s="45"/>
     </row>
     <row r="25" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B25" s="45" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C25" s="46">
         <v>53</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J25" s="45"/>
     </row>
     <row r="26" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B26" s="45" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C26" s="46">
         <v>93</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J26" s="45"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="58" t="s">
-        <v>197</v>
+      <c r="B27" s="57" t="s">
+        <v>192</v>
       </c>
       <c r="C27" s="52"/>
       <c r="D27" s="52"/>
@@ -5284,10 +5193,10 @@
     </row>
     <row r="28" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B28" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>198</v>
+        <v>98</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>193</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
@@ -5299,50 +5208,50 @@
     </row>
     <row r="29" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B29" s="45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C29" s="46">
         <v>55</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G29" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J29" s="45"/>
     </row>
     <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
+      <c r="B30" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B31" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="C31" s="57" t="s">
-        <v>202</v>
+        <v>143</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>197</v>
       </c>
       <c r="D31" s="49"/>
       <c r="E31" s="49"/>
@@ -5354,104 +5263,104 @@
     </row>
     <row r="32" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C32" s="46">
         <v>57</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G32" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J32" s="45"/>
     </row>
     <row r="33" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B33" s="45" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C33" s="46">
         <v>58</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G33" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H33" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J33" s="45"/>
     </row>
     <row r="34" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B34" s="45" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C34" s="46">
         <v>59</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G34" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J34" s="45"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
+      <c r="B35" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B36" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>211</v>
+        <v>102</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>206</v>
       </c>
       <c r="D36" s="49"/>
       <c r="E36" s="49"/>
@@ -5463,77 +5372,77 @@
     </row>
     <row r="37" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B37" s="45" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C37" s="46">
         <v>95</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J37" s="45"/>
     </row>
     <row r="38" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B38" s="45" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C38" s="46">
         <v>96</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G38" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I38" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J38" s="45"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="58" t="s">
-        <v>216</v>
-      </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
+      <c r="B39" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
     </row>
     <row r="40" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B40" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>216</v>
+        <v>103</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>211</v>
       </c>
       <c r="D40" s="49"/>
       <c r="E40" s="49"/>
@@ -5545,25 +5454,25 @@
     </row>
     <row r="41" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B41" s="45" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C41" s="46">
         <v>97</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G41" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I41" s="33" t="s">
         <v>16</v>
@@ -5572,25 +5481,25 @@
     </row>
     <row r="42" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B42" s="45" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C42" s="46">
         <v>98</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="F42" s="59" t="s">
-        <v>220</v>
+        <v>288</v>
+      </c>
+      <c r="F42" s="58" t="s">
+        <v>215</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I42" s="33" t="s">
         <v>16</v>
@@ -5598,24 +5507,24 @@
       <c r="J42" s="45"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="58" t="s">
-        <v>221</v>
-      </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
+      <c r="B43" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
     </row>
     <row r="44" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B44" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="57" t="s">
-        <v>222</v>
+        <v>106</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>217</v>
       </c>
       <c r="D44" s="49"/>
       <c r="E44" s="49"/>
@@ -5627,131 +5536,131 @@
     </row>
     <row r="45" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B45" s="45" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C45" s="46">
         <v>99</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G45" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I45" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J45" s="45"/>
     </row>
     <row r="46" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B46" s="45" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C46" s="46">
         <v>100</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G46" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I46" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J46" s="45"/>
     </row>
     <row r="47" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B47" s="45" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C47" s="46">
         <v>100</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G47" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I47" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J47" s="45"/>
     </row>
     <row r="48" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B48" s="45" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C48" s="46">
         <v>101</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G48" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H48" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I48" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J48" s="45"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
+      <c r="B49" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
     </row>
     <row r="50" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B50" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="57" t="s">
-        <v>230</v>
+        <v>107</v>
+      </c>
+      <c r="C50" s="56" t="s">
+        <v>225</v>
       </c>
       <c r="D50" s="49"/>
       <c r="E50" s="49"/>
@@ -5763,23 +5672,23 @@
     </row>
     <row r="51" spans="2:10" ht="98.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B51" s="45" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C51" s="45"/>
       <c r="D51" s="33" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G51" s="33" t="s">
         <v>90</v>
       </c>
       <c r="H51" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I51" s="33" t="s">
         <v>16</v>
@@ -5788,10 +5697,10 @@
     </row>
     <row r="52" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B52" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="57" t="s">
-        <v>234</v>
+        <v>108</v>
+      </c>
+      <c r="C52" s="56" t="s">
+        <v>229</v>
       </c>
       <c r="D52" s="49"/>
       <c r="E52" s="49"/>
@@ -5803,23 +5712,23 @@
     </row>
     <row r="53" spans="2:10" ht="111" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B53" s="45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C53" s="45"/>
       <c r="D53" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F53" s="33" t="s">
         <v>231</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="F53" s="33" t="s">
-        <v>236</v>
       </c>
       <c r="G53" s="33" t="s">
         <v>90</v>
       </c>
       <c r="H53" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I53" s="33" t="s">
         <v>16</v>
@@ -5827,24 +5736,24 @@
       <c r="J53" s="45"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
+      <c r="B54" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
     </row>
     <row r="55" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B55" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="57" t="s">
-        <v>238</v>
+        <v>110</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>233</v>
       </c>
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
@@ -5856,23 +5765,23 @@
     </row>
     <row r="56" spans="2:10" ht="106.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B56" s="45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C56" s="45"/>
       <c r="D56" s="45" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G56" s="33" t="s">
         <v>90</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I56" s="33" t="s">
         <v>16</v>
@@ -5880,24 +5789,24 @@
       <c r="J56" s="45"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
+      <c r="B57" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
     </row>
     <row r="58" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B58" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="57" t="s">
-        <v>243</v>
+        <v>112</v>
+      </c>
+      <c r="C58" s="56" t="s">
+        <v>238</v>
       </c>
       <c r="D58" s="49"/>
       <c r="E58" s="49"/>
@@ -5909,35 +5818,35 @@
     </row>
     <row r="59" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B59" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C59" s="45"/>
       <c r="D59" s="33" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G59" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H59" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I59" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J59" s="45"/>
     </row>
     <row r="60" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B60" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="57" t="s">
-        <v>247</v>
+        <v>114</v>
+      </c>
+      <c r="C60" s="56" t="s">
+        <v>242</v>
       </c>
       <c r="D60" s="49"/>
       <c r="E60" s="49"/>
@@ -5949,35 +5858,35 @@
     </row>
     <row r="61" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B61" s="45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C61" s="45"/>
       <c r="D61" s="33" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G61" s="33" t="s">
         <v>90</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I61" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J61" s="45"/>
     </row>
     <row r="62" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B62" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="57" t="s">
-        <v>249</v>
+        <v>116</v>
+      </c>
+      <c r="C62" s="56" t="s">
+        <v>244</v>
       </c>
       <c r="D62" s="49"/>
       <c r="E62" s="49"/>
@@ -5989,48 +5898,48 @@
     </row>
     <row r="63" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B63" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C63" s="45"/>
       <c r="D63" s="33" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F63" s="33" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G63" s="33" t="s">
         <v>90</v>
       </c>
       <c r="H63" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I63" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J63" s="45"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="58" t="s">
-        <v>251</v>
-      </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="58"/>
+      <c r="B64" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
     </row>
     <row r="65" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B65" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="C65" s="57" t="s">
-        <v>252</v>
+        <v>118</v>
+      </c>
+      <c r="C65" s="56" t="s">
+        <v>247</v>
       </c>
       <c r="D65" s="49"/>
       <c r="E65" s="49"/>
@@ -6042,85 +5951,85 @@
     </row>
     <row r="66" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B66" s="45" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C66" s="45"/>
       <c r="D66" s="33" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F66" s="33" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G66" s="33" t="s">
         <v>90</v>
       </c>
       <c r="H66" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I66" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J66" s="45"/>
     </row>
     <row r="67" spans="2:10" ht="97.5" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B67" s="45" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C67" s="45"/>
       <c r="D67" s="33" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F67" s="33" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G67" s="33" t="s">
         <v>90</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I67" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J67" s="45"/>
     </row>
     <row r="68" spans="2:10" ht="96" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B68" s="45" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C68" s="45"/>
       <c r="D68" s="33" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G68" s="33" t="s">
         <v>90</v>
       </c>
       <c r="H68" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I68" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J68" s="45"/>
     </row>
     <row r="69" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B69" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69" s="57" t="s">
-        <v>262</v>
+        <v>120</v>
+      </c>
+      <c r="C69" s="56" t="s">
+        <v>257</v>
       </c>
       <c r="D69" s="49"/>
       <c r="E69" s="49"/>
@@ -6132,98 +6041,98 @@
     </row>
     <row r="70" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B70" s="45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C70" s="45"/>
       <c r="D70" s="33" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G70" s="33" t="s">
         <v>90</v>
       </c>
       <c r="H70" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I70" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J70" s="45"/>
     </row>
     <row r="71" spans="2:10" ht="114.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B71" s="45" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C71" s="45"/>
       <c r="D71" s="33" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G71" s="33" t="s">
         <v>90</v>
       </c>
       <c r="H71" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I71" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J71" s="45"/>
     </row>
     <row r="72" spans="2:10" ht="114.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B72" s="45" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C72" s="45"/>
       <c r="D72" s="33" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G72" s="33" t="s">
         <v>90</v>
       </c>
       <c r="H72" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I72" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J72" s="45"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="58"/>
-      <c r="J73" s="58"/>
+      <c r="B73" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
     </row>
     <row r="74" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B74" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" s="57" t="s">
-        <v>269</v>
+        <v>137</v>
+      </c>
+      <c r="C74" s="56" t="s">
+        <v>264</v>
       </c>
       <c r="D74" s="49"/>
       <c r="E74" s="49"/>
@@ -6235,47 +6144,49 @@
     </row>
     <row r="75" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B75" s="45" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C75" s="45"/>
       <c r="D75" s="33" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G75" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H75" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I75" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J75" s="45"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="C76" s="58"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
+      <c r="B76" s="57" t="s">
+        <v>323</v>
+      </c>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="57"/>
     </row>
     <row r="77" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B77" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="C77" s="48"/>
+        <v>138</v>
+      </c>
+      <c r="C77" s="95" t="s">
+        <v>323</v>
+      </c>
       <c r="D77" s="48"/>
       <c r="E77" s="48"/>
       <c r="F77" s="48"/>
@@ -6285,144 +6196,144 @@
       <c r="J77" s="48"/>
     </row>
     <row r="78" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B78" s="90" t="s">
+      <c r="B78" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="83"/>
+      <c r="D78" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="F78" s="45"/>
+      <c r="G78" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="I78" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="J78" s="45"/>
+    </row>
+    <row r="79" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B79" s="93"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="93"/>
+      <c r="E79" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="F79" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="G79" s="84"/>
+      <c r="H79" s="87"/>
+      <c r="I79" s="90"/>
+      <c r="J79" s="45"/>
+    </row>
+    <row r="80" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B80" s="93"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="93"/>
+      <c r="E80" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="F80" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="G80" s="84"/>
+      <c r="H80" s="87"/>
+      <c r="I80" s="90"/>
+      <c r="J80" s="45"/>
+    </row>
+    <row r="81" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B81" s="94"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="F81" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="G81" s="85"/>
+      <c r="H81" s="88"/>
+      <c r="I81" s="91"/>
+      <c r="J81" s="45"/>
+    </row>
+    <row r="82" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B82" s="92" t="s">
+        <v>310</v>
+      </c>
+      <c r="C82" s="83"/>
+      <c r="D82" s="92" t="s">
+        <v>303</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="F82" s="45"/>
+      <c r="G82" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="H82" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="I82" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="J82" s="45"/>
+    </row>
+    <row r="83" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B83" s="93"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="93"/>
+      <c r="E83" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="F83" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="81"/>
-      <c r="D78" s="90" t="s">
-        <v>307</v>
-      </c>
-      <c r="E78" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="F78" s="45"/>
-      <c r="G78" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="H78" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="I78" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="J78" s="45"/>
-    </row>
-    <row r="79" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B79" s="91"/>
-      <c r="C79" s="82"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="F79" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="G79" s="82"/>
-      <c r="H79" s="85"/>
-      <c r="I79" s="88"/>
-      <c r="J79" s="45"/>
-    </row>
-    <row r="80" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B80" s="91"/>
-      <c r="C80" s="82"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="F80" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="G80" s="82"/>
-      <c r="H80" s="85"/>
-      <c r="I80" s="88"/>
-      <c r="J80" s="45"/>
-    </row>
-    <row r="81" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B81" s="92"/>
-      <c r="C81" s="83"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="45" t="s">
-        <v>312</v>
-      </c>
-      <c r="F81" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="G81" s="83"/>
-      <c r="H81" s="86"/>
-      <c r="I81" s="89"/>
-      <c r="J81" s="45"/>
-    </row>
-    <row r="82" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B82" s="90" t="s">
-        <v>315</v>
-      </c>
-      <c r="C82" s="81"/>
-      <c r="D82" s="90" t="s">
-        <v>308</v>
-      </c>
-      <c r="E82" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="F82" s="45"/>
-      <c r="G82" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="H82" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="I82" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="J82" s="45"/>
-    </row>
-    <row r="83" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B83" s="91"/>
-      <c r="C83" s="82"/>
-      <c r="D83" s="91"/>
-      <c r="E83" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="F83" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="G83" s="82"/>
-      <c r="H83" s="85"/>
-      <c r="I83" s="88"/>
+      <c r="G83" s="84"/>
+      <c r="H83" s="87"/>
+      <c r="I83" s="90"/>
       <c r="J83" s="45"/>
     </row>
     <row r="84" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B84" s="91"/>
-      <c r="C84" s="82"/>
-      <c r="D84" s="91"/>
+      <c r="B84" s="93"/>
+      <c r="C84" s="84"/>
+      <c r="D84" s="93"/>
       <c r="E84" s="33" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F84" s="53">
         <v>123456</v>
       </c>
-      <c r="G84" s="82"/>
-      <c r="H84" s="85"/>
-      <c r="I84" s="88"/>
+      <c r="G84" s="84"/>
+      <c r="H84" s="87"/>
+      <c r="I84" s="90"/>
       <c r="J84" s="45"/>
     </row>
     <row r="85" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B85" s="92"/>
-      <c r="C85" s="83"/>
-      <c r="D85" s="92"/>
+      <c r="B85" s="94"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="94"/>
       <c r="E85" s="45" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="G85" s="83"/>
-      <c r="H85" s="86"/>
-      <c r="I85" s="89"/>
+        <v>309</v>
+      </c>
+      <c r="G85" s="85"/>
+      <c r="H85" s="88"/>
+      <c r="I85" s="91"/>
       <c r="J85" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="B10:J76"/>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="B78:B81"/>
     <mergeCell ref="C78:C81"/>
     <mergeCell ref="D78:D81"/>
@@ -6435,6 +6346,7 @@
     <mergeCell ref="H82:H85"/>
     <mergeCell ref="I78:I81"/>
     <mergeCell ref="I82:I85"/>
+    <mergeCell ref="E2:J4"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -6740,7 +6652,7 @@
   </sheetPr>
   <dimension ref="L3:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -6751,49 +6663,49 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="27" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="27" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="27" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="27" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L7" s="27"/>
     </row>
     <row r="8" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="L8" s="64" t="s">
-        <v>143</v>
+      <c r="L8" s="62" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L9" s="65"/>
+      <c r="L9" s="63"/>
     </row>
     <row r="10" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L10" s="65"/>
+      <c r="L10" s="63"/>
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="L11" s="66" t="s">
-        <v>320</v>
+      <c r="L11" s="64" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L12" s="65"/>
+      <c r="L12" s="63"/>
     </row>
     <row r="13" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="L13" s="66" t="s">
-        <v>321</v>
+      <c r="L13" s="64" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -6912,7 +6824,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C13" s="29" t="b">
         <v>1</v>
@@ -6923,7 +6835,7 @@
         <v>60</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>69</v>
@@ -6934,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C17" s="28" t="b">
         <v>0</v>
@@ -6944,8 +6856,8 @@
       <c r="A18" s="28">
         <v>2</v>
       </c>
-      <c r="B18" s="61" t="s">
-        <v>132</v>
+      <c r="B18" s="59" t="s">
+        <v>129</v>
       </c>
       <c r="C18" s="28" t="b">
         <v>0</v>
@@ -6955,8 +6867,8 @@
       <c r="A19" s="28">
         <v>3</v>
       </c>
-      <c r="B19" s="62" t="s">
-        <v>134</v>
+      <c r="B19" s="60" t="s">
+        <v>131</v>
       </c>
       <c r="C19" s="28" t="b">
         <v>0</v>
@@ -6966,8 +6878,8 @@
       <c r="A20" s="28">
         <v>4</v>
       </c>
-      <c r="B20" s="62" t="s">
-        <v>135</v>
+      <c r="B20" s="60" t="s">
+        <v>132</v>
       </c>
       <c r="C20" s="28" t="b">
         <v>0</v>
@@ -6977,8 +6889,8 @@
       <c r="A21" s="29">
         <v>5</v>
       </c>
-      <c r="B21" s="63" t="s">
-        <v>136</v>
+      <c r="B21" s="61" t="s">
+        <v>133</v>
       </c>
       <c r="C21" s="29" t="b">
         <v>1</v>
